--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3080.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3080.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.109067789359998</v>
+        <v>1.271338224411011</v>
       </c>
       <c r="B1">
-        <v>2.379291452611759</v>
+        <v>2.148607730865479</v>
       </c>
       <c r="C1">
-        <v>4.49106884407935</v>
+        <v>4.713882923126221</v>
       </c>
       <c r="D1">
-        <v>3.505458245608707</v>
+        <v>3.27408242225647</v>
       </c>
       <c r="E1">
-        <v>1.288478574645576</v>
+        <v>1.375074625015259</v>
       </c>
     </row>
   </sheetData>
